--- a/Manual Decode V1.xlsx
+++ b/Manual Decode V1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\KNOX15\Knox_Main\Projekti\Arduino\WiFi AC\IR Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Knox_Main/Projekti/Arduino/WiFi AC/IR Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20460" activeTab="1"/>
+    <workbookView xWindow="1960" yWindow="460" windowWidth="25620" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="Decode" sheetId="3" r:id="rId1"/>
@@ -17,13 +17,16 @@
     <sheet name="Calc" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1791,16 +1794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1810,6 +1804,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1833,7 +1833,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2128,53 +2131,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="1"/>
-    <col min="3" max="3" width="6.140625" style="14" customWidth="1"/>
-    <col min="4" max="30" width="6.140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.85546875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="6.1640625" style="14" customWidth="1"/>
+    <col min="4" max="30" width="6.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.83203125" style="1"/>
     <col min="32" max="47" width="9" style="1" customWidth="1"/>
-    <col min="48" max="16384" width="10.85546875" style="1"/>
+    <col min="48" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="C2" s="73" t="s">
+    <row r="2" spans="3:30" ht="21" x14ac:dyDescent="0.25">
+      <c r="C2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
       <c r="AB2" s="49"/>
       <c r="AC2" s="49"/>
       <c r="AD2" s="49"/>
     </row>
-    <row r="3" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="3:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:30" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="15" t="s">
         <v>25</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C5" s="1">
         <v>0</v>
       </c>
@@ -2396,7 +2399,7 @@
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
     </row>
-    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -2500,7 +2503,7 @@
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
     </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>7F</v>
       </c>
     </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -2806,7 +2809,7 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
     </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -2910,7 +2913,7 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
     </row>
-    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -2948,7 +2951,7 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
     </row>
-    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>C6</v>
       </c>
     </row>
-    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>2A</v>
       </c>
     </row>
-    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -3013,41 +3016,41 @@
         <v>D5</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="69" t="s">
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="R18" s="70"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="63" t="s">
+      <c r="R18" s="69"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="65"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="62"/>
       <c r="X18" s="53" t="s">
         <v>100</v>
       </c>
@@ -3061,29 +3064,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="71">
         <f t="shared" ref="D19:D24" si="0">HEX2DEC(D5)</f>
         <v>239</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
       <c r="T19" s="52">
         <f>HEX2DEC(T5)</f>
         <v>207</v>
@@ -3117,29 +3120,29 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="71">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
       <c r="T20" s="52">
         <f t="shared" ref="T20:AA24" si="2">HEX2DEC(T6)</f>
         <v>48</v>
@@ -3173,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>2</v>
       </c>
@@ -3241,15 +3244,15 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="T21" s="59">
+      <c r="T21" s="63">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="60"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="64"/>
       <c r="Z21" s="52">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -3259,7 +3262,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>3</v>
       </c>
@@ -3327,15 +3330,15 @@
         <f t="shared" si="4"/>
         <v>177</v>
       </c>
-      <c r="T22" s="59">
+      <c r="T22" s="63">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="60"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="64"/>
       <c r="Z22" s="52">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3345,38 +3348,38 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="71">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="59">
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="63">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="60"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="64"/>
       <c r="Z23" s="52">
         <f t="shared" ref="Z23:AA23" si="5">HEX2DEC(Z9)</f>
         <v>255</v>
@@ -3386,38 +3389,38 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>5</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="71">
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="59">
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="63">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="60"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="64"/>
       <c r="Z24" s="52">
         <f t="shared" ref="Z24:AA24" si="6">HEX2DEC(Z10)</f>
         <v>0</v>
@@ -3427,7 +3430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>6</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>7</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>8</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>9</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>10</v>
       </c>
@@ -3593,13 +3596,13 @@
       <c r="W29" s="52"/>
       <c r="X29" s="52"/>
       <c r="Y29" s="52"/>
-      <c r="Z29" s="59">
+      <c r="Z29" s="63">
         <f t="shared" ref="Z29" si="11">HEX2DEC(Z15)</f>
         <v>42</v>
       </c>
-      <c r="AA29" s="60"/>
+      <c r="AA29" s="64"/>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>11</v>
       </c>
@@ -3625,83 +3628,88 @@
       <c r="W30" s="52"/>
       <c r="X30" s="52"/>
       <c r="Y30" s="52"/>
-      <c r="Z30" s="59">
+      <c r="Z30" s="63">
         <f t="shared" ref="Z30" si="12">HEX2DEC(Z16)</f>
         <v>213</v>
       </c>
-      <c r="AA30" s="60"/>
+      <c r="AA30" s="64"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="66" t="s">
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="R31" s="67"/>
-      <c r="S31" s="68"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="67"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62" t="s">
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62" t="s">
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="AA32" s="62"/>
+      <c r="AA32" s="73"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="T24:Y24"/>
     <mergeCell ref="C2:AA2"/>
     <mergeCell ref="T18:W18"/>
     <mergeCell ref="Z29:AA29"/>
@@ -3716,11 +3724,6 @@
     <mergeCell ref="Z30:AA30"/>
     <mergeCell ref="T22:Y22"/>
     <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="D32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="T24:Y24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3731,148 +3734,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NU203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="LO1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="MO6" sqref="MO6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="4.140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="4.1640625" style="11" customWidth="1"/>
     <col min="16" max="16" width="2" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" customWidth="1"/>
-    <col min="18" max="21" width="8.85546875" style="1"/>
-    <col min="22" max="22" width="4.140625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" style="1" customWidth="1"/>
+    <col min="18" max="21" width="8.83203125" style="1"/>
+    <col min="22" max="22" width="4.1640625" style="11" customWidth="1"/>
     <col min="27" max="27" width="2" customWidth="1"/>
-    <col min="28" max="28" width="5.28515625" style="1" customWidth="1"/>
-    <col min="29" max="31" width="8.85546875" style="1"/>
-    <col min="32" max="32" width="8.85546875" style="6"/>
-    <col min="33" max="33" width="4.140625" style="11" customWidth="1"/>
+    <col min="28" max="28" width="5.33203125" style="1" customWidth="1"/>
+    <col min="29" max="31" width="8.83203125" style="1"/>
+    <col min="32" max="32" width="8.83203125" style="6"/>
+    <col min="33" max="33" width="4.1640625" style="11" customWidth="1"/>
     <col min="38" max="38" width="2" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" style="1" customWidth="1"/>
-    <col min="40" max="43" width="8.85546875" style="1"/>
-    <col min="44" max="44" width="4.140625" style="11" customWidth="1"/>
+    <col min="39" max="39" width="5.33203125" style="1" customWidth="1"/>
+    <col min="40" max="43" width="8.83203125" style="1"/>
+    <col min="44" max="44" width="4.1640625" style="11" customWidth="1"/>
     <col min="49" max="49" width="2" customWidth="1"/>
-    <col min="50" max="50" width="5.28515625" style="1" customWidth="1"/>
-    <col min="51" max="54" width="8.85546875" style="1"/>
-    <col min="55" max="55" width="4.140625" style="11" customWidth="1"/>
+    <col min="50" max="50" width="5.33203125" style="1" customWidth="1"/>
+    <col min="51" max="54" width="8.83203125" style="1"/>
+    <col min="55" max="55" width="4.1640625" style="11" customWidth="1"/>
     <col min="60" max="60" width="2" customWidth="1"/>
-    <col min="61" max="61" width="5.28515625" style="1" customWidth="1"/>
-    <col min="62" max="65" width="8.85546875" style="1"/>
-    <col min="66" max="66" width="4.140625" style="11" customWidth="1"/>
+    <col min="61" max="61" width="5.33203125" style="1" customWidth="1"/>
+    <col min="62" max="65" width="8.83203125" style="1"/>
+    <col min="66" max="66" width="4.1640625" style="11" customWidth="1"/>
     <col min="71" max="71" width="2" customWidth="1"/>
-    <col min="72" max="72" width="5.28515625" style="1" customWidth="1"/>
-    <col min="73" max="76" width="8.85546875" style="1"/>
-    <col min="77" max="77" width="4.140625" style="11" customWidth="1"/>
+    <col min="72" max="72" width="5.33203125" style="1" customWidth="1"/>
+    <col min="73" max="76" width="8.83203125" style="1"/>
+    <col min="77" max="77" width="4.1640625" style="11" customWidth="1"/>
     <col min="82" max="82" width="2" customWidth="1"/>
-    <col min="83" max="83" width="5.28515625" style="1" customWidth="1"/>
-    <col min="84" max="87" width="8.85546875" style="1"/>
-    <col min="88" max="88" width="4.140625" style="11" customWidth="1"/>
+    <col min="83" max="83" width="5.33203125" style="1" customWidth="1"/>
+    <col min="84" max="87" width="8.83203125" style="1"/>
+    <col min="88" max="88" width="4.1640625" style="11" customWidth="1"/>
     <col min="93" max="93" width="2" customWidth="1"/>
-    <col min="94" max="94" width="5.28515625" style="1" customWidth="1"/>
-    <col min="95" max="98" width="8.85546875" style="1"/>
-    <col min="99" max="99" width="4.140625" style="11" customWidth="1"/>
+    <col min="94" max="94" width="5.33203125" style="1" customWidth="1"/>
+    <col min="95" max="98" width="8.83203125" style="1"/>
+    <col min="99" max="99" width="4.1640625" style="11" customWidth="1"/>
     <col min="104" max="104" width="2" customWidth="1"/>
-    <col min="105" max="105" width="5.28515625" style="1" customWidth="1"/>
-    <col min="106" max="109" width="8.85546875" style="1"/>
-    <col min="110" max="110" width="4.140625" style="11" customWidth="1"/>
+    <col min="105" max="105" width="5.33203125" style="1" customWidth="1"/>
+    <col min="106" max="109" width="8.83203125" style="1"/>
+    <col min="110" max="110" width="4.1640625" style="11" customWidth="1"/>
     <col min="115" max="115" width="2" customWidth="1"/>
-    <col min="116" max="116" width="5.28515625" style="1" customWidth="1"/>
-    <col min="117" max="120" width="8.85546875" style="1"/>
-    <col min="121" max="121" width="4.140625" style="11" customWidth="1"/>
+    <col min="116" max="116" width="5.33203125" style="1" customWidth="1"/>
+    <col min="117" max="120" width="8.83203125" style="1"/>
+    <col min="121" max="121" width="4.1640625" style="11" customWidth="1"/>
     <col min="126" max="126" width="2" customWidth="1"/>
-    <col min="127" max="127" width="5.28515625" style="1" customWidth="1"/>
-    <col min="128" max="131" width="8.85546875" style="1"/>
-    <col min="132" max="132" width="4.140625" style="11" customWidth="1"/>
+    <col min="127" max="127" width="5.33203125" style="1" customWidth="1"/>
+    <col min="128" max="131" width="8.83203125" style="1"/>
+    <col min="132" max="132" width="4.1640625" style="11" customWidth="1"/>
     <col min="137" max="137" width="2" customWidth="1"/>
-    <col min="138" max="138" width="5.28515625" style="1" customWidth="1"/>
-    <col min="139" max="142" width="8.85546875" style="1"/>
-    <col min="143" max="143" width="4.140625" style="11" customWidth="1"/>
+    <col min="138" max="138" width="5.33203125" style="1" customWidth="1"/>
+    <col min="139" max="142" width="8.83203125" style="1"/>
+    <col min="143" max="143" width="4.1640625" style="11" customWidth="1"/>
     <col min="148" max="148" width="2" customWidth="1"/>
-    <col min="149" max="149" width="5.28515625" style="1" customWidth="1"/>
-    <col min="150" max="153" width="8.85546875" style="1"/>
-    <col min="154" max="154" width="4.140625" style="11" customWidth="1"/>
+    <col min="149" max="149" width="5.33203125" style="1" customWidth="1"/>
+    <col min="150" max="153" width="8.83203125" style="1"/>
+    <col min="154" max="154" width="4.1640625" style="11" customWidth="1"/>
     <col min="159" max="159" width="2" customWidth="1"/>
-    <col min="160" max="160" width="5.28515625" style="1" customWidth="1"/>
-    <col min="161" max="164" width="8.85546875" style="1"/>
-    <col min="165" max="165" width="4.140625" style="11" customWidth="1"/>
+    <col min="160" max="160" width="5.33203125" style="1" customWidth="1"/>
+    <col min="161" max="164" width="8.83203125" style="1"/>
+    <col min="165" max="165" width="4.1640625" style="11" customWidth="1"/>
     <col min="170" max="170" width="2" customWidth="1"/>
-    <col min="171" max="171" width="5.28515625" style="1" customWidth="1"/>
-    <col min="172" max="175" width="8.85546875" style="1"/>
-    <col min="176" max="176" width="4.140625" style="11" customWidth="1"/>
+    <col min="171" max="171" width="5.33203125" style="1" customWidth="1"/>
+    <col min="172" max="175" width="8.83203125" style="1"/>
+    <col min="176" max="176" width="4.1640625" style="11" customWidth="1"/>
     <col min="181" max="181" width="2" customWidth="1"/>
-    <col min="182" max="182" width="5.28515625" style="1" customWidth="1"/>
-    <col min="183" max="186" width="8.85546875" style="1"/>
-    <col min="187" max="187" width="4.140625" style="11" customWidth="1"/>
+    <col min="182" max="182" width="5.33203125" style="1" customWidth="1"/>
+    <col min="183" max="186" width="8.83203125" style="1"/>
+    <col min="187" max="187" width="4.1640625" style="11" customWidth="1"/>
     <col min="192" max="192" width="2" customWidth="1"/>
-    <col min="193" max="193" width="5.28515625" style="1" customWidth="1"/>
-    <col min="194" max="197" width="8.85546875" style="1"/>
-    <col min="198" max="198" width="4.140625" style="11" customWidth="1"/>
+    <col min="193" max="193" width="5.33203125" style="1" customWidth="1"/>
+    <col min="194" max="197" width="8.83203125" style="1"/>
+    <col min="198" max="198" width="4.1640625" style="11" customWidth="1"/>
     <col min="203" max="203" width="2" customWidth="1"/>
-    <col min="204" max="204" width="5.28515625" style="1" customWidth="1"/>
-    <col min="205" max="208" width="8.85546875" style="1"/>
-    <col min="209" max="209" width="4.140625" style="11" customWidth="1"/>
+    <col min="204" max="204" width="5.33203125" style="1" customWidth="1"/>
+    <col min="205" max="208" width="8.83203125" style="1"/>
+    <col min="209" max="209" width="4.1640625" style="11" customWidth="1"/>
     <col min="214" max="214" width="2" customWidth="1"/>
-    <col min="215" max="215" width="5.28515625" style="1" customWidth="1"/>
-    <col min="216" max="219" width="8.85546875" style="1"/>
-    <col min="220" max="220" width="4.140625" style="11" customWidth="1"/>
+    <col min="215" max="215" width="5.33203125" style="1" customWidth="1"/>
+    <col min="216" max="219" width="8.83203125" style="1"/>
+    <col min="220" max="220" width="4.1640625" style="11" customWidth="1"/>
     <col min="225" max="225" width="2" customWidth="1"/>
-    <col min="226" max="226" width="5.28515625" style="1" customWidth="1"/>
-    <col min="227" max="230" width="8.85546875" style="1"/>
-    <col min="231" max="231" width="4.140625" style="11" customWidth="1"/>
+    <col min="226" max="226" width="5.33203125" style="1" customWidth="1"/>
+    <col min="227" max="230" width="8.83203125" style="1"/>
+    <col min="231" max="231" width="4.1640625" style="11" customWidth="1"/>
     <col min="236" max="236" width="2" customWidth="1"/>
-    <col min="237" max="237" width="5.28515625" style="1" customWidth="1"/>
-    <col min="238" max="241" width="8.85546875" style="1"/>
-    <col min="242" max="242" width="4.140625" style="11" customWidth="1"/>
+    <col min="237" max="237" width="5.33203125" style="1" customWidth="1"/>
+    <col min="238" max="241" width="8.83203125" style="1"/>
+    <col min="242" max="242" width="4.1640625" style="11" customWidth="1"/>
     <col min="247" max="247" width="2" customWidth="1"/>
-    <col min="248" max="248" width="5.28515625" style="1" customWidth="1"/>
-    <col min="249" max="252" width="8.85546875" style="1"/>
-    <col min="253" max="253" width="4.140625" style="11" customWidth="1"/>
+    <col min="248" max="248" width="5.33203125" style="1" customWidth="1"/>
+    <col min="249" max="252" width="8.83203125" style="1"/>
+    <col min="253" max="253" width="4.1640625" style="11" customWidth="1"/>
     <col min="258" max="258" width="2" customWidth="1"/>
-    <col min="259" max="259" width="5.28515625" style="1" customWidth="1"/>
-    <col min="260" max="263" width="8.85546875" style="1"/>
-    <col min="264" max="264" width="4.140625" style="11" customWidth="1"/>
+    <col min="259" max="259" width="5.33203125" style="1" customWidth="1"/>
+    <col min="260" max="263" width="8.83203125" style="1"/>
+    <col min="264" max="264" width="4.1640625" style="11" customWidth="1"/>
     <col min="269" max="269" width="2" customWidth="1"/>
-    <col min="270" max="270" width="5.28515625" style="1" customWidth="1"/>
-    <col min="271" max="274" width="8.85546875" style="1"/>
-    <col min="275" max="275" width="4.140625" style="11" customWidth="1"/>
+    <col min="270" max="270" width="5.33203125" style="1" customWidth="1"/>
+    <col min="271" max="274" width="8.83203125" style="1"/>
+    <col min="275" max="275" width="4.1640625" style="11" customWidth="1"/>
     <col min="280" max="280" width="2" customWidth="1"/>
-    <col min="281" max="281" width="5.28515625" style="1" customWidth="1"/>
-    <col min="282" max="285" width="8.85546875" style="1"/>
-    <col min="286" max="286" width="4.140625" style="11" customWidth="1"/>
+    <col min="281" max="281" width="5.33203125" style="1" customWidth="1"/>
+    <col min="282" max="285" width="8.83203125" style="1"/>
+    <col min="286" max="286" width="4.1640625" style="11" customWidth="1"/>
     <col min="291" max="291" width="2" customWidth="1"/>
-    <col min="292" max="292" width="5.28515625" style="1" customWidth="1"/>
-    <col min="293" max="296" width="8.85546875" style="1"/>
-    <col min="297" max="297" width="4.140625" style="11" customWidth="1"/>
+    <col min="292" max="292" width="5.33203125" style="1" customWidth="1"/>
+    <col min="293" max="296" width="8.83203125" style="1"/>
+    <col min="297" max="297" width="4.1640625" style="11" customWidth="1"/>
     <col min="302" max="302" width="2" customWidth="1"/>
-    <col min="303" max="303" width="5.28515625" style="1" customWidth="1"/>
-    <col min="304" max="307" width="8.85546875" style="1"/>
-    <col min="308" max="308" width="4.140625" style="11" customWidth="1"/>
+    <col min="303" max="303" width="5.33203125" style="1" customWidth="1"/>
+    <col min="304" max="307" width="8.83203125" style="1"/>
+    <col min="308" max="308" width="4.1640625" style="11" customWidth="1"/>
     <col min="313" max="313" width="2" customWidth="1"/>
-    <col min="314" max="314" width="5.28515625" style="1" customWidth="1"/>
-    <col min="315" max="318" width="8.85546875" style="1"/>
-    <col min="319" max="319" width="4.140625" style="11" customWidth="1"/>
+    <col min="314" max="314" width="5.33203125" style="1" customWidth="1"/>
+    <col min="315" max="318" width="8.83203125" style="1"/>
+    <col min="319" max="319" width="4.1640625" style="11" customWidth="1"/>
     <col min="324" max="324" width="2" customWidth="1"/>
-    <col min="325" max="325" width="5.28515625" style="1" customWidth="1"/>
-    <col min="326" max="329" width="8.85546875" style="1"/>
-    <col min="330" max="330" width="4.140625" style="11" customWidth="1"/>
+    <col min="325" max="325" width="5.33203125" style="1" customWidth="1"/>
+    <col min="326" max="329" width="8.83203125" style="1"/>
+    <col min="330" max="330" width="4.1640625" style="11" customWidth="1"/>
     <col min="335" max="335" width="2" customWidth="1"/>
-    <col min="336" max="336" width="5.28515625" style="1" customWidth="1"/>
-    <col min="337" max="340" width="8.85546875" style="1"/>
-    <col min="341" max="341" width="4.140625" style="11" customWidth="1"/>
+    <col min="336" max="336" width="5.33203125" style="1" customWidth="1"/>
+    <col min="337" max="340" width="8.83203125" style="1"/>
+    <col min="341" max="341" width="4.1640625" style="11" customWidth="1"/>
     <col min="346" max="346" width="2" customWidth="1"/>
-    <col min="347" max="347" width="5.28515625" style="1" customWidth="1"/>
-    <col min="348" max="351" width="8.85546875" style="1"/>
-    <col min="352" max="352" width="4.140625" style="11" customWidth="1"/>
+    <col min="347" max="347" width="5.33203125" style="1" customWidth="1"/>
+    <col min="348" max="351" width="8.83203125" style="1"/>
+    <col min="352" max="352" width="4.1640625" style="11" customWidth="1"/>
     <col min="357" max="357" width="2" customWidth="1"/>
-    <col min="358" max="358" width="5.28515625" style="1" customWidth="1"/>
-    <col min="359" max="362" width="8.85546875" style="1"/>
-    <col min="363" max="363" width="4.140625" style="11" customWidth="1"/>
+    <col min="358" max="358" width="5.33203125" style="1" customWidth="1"/>
+    <col min="359" max="362" width="8.83203125" style="1"/>
+    <col min="363" max="363" width="4.1640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3880,12 +3883,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:363" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
         <v>21</v>
       </c>
@@ -4281,7 +4284,7 @@
       <c r="MW4" s="74"/>
       <c r="MX4" s="74"/>
     </row>
-    <row r="5" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -4583,7 +4586,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:363" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:363" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -6566,7 +6569,7 @@
       </c>
       <c r="MY8" s="12"/>
     </row>
-    <row r="9" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -7612,7 +7615,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="10" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8162,7 +8165,7 @@
       </c>
       <c r="MX10" s="6"/>
     </row>
-    <row r="11" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8712,7 +8715,7 @@
       </c>
       <c r="MX11" s="6"/>
     </row>
-    <row r="12" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -9262,7 +9265,7 @@
       </c>
       <c r="MX12" s="6"/>
     </row>
-    <row r="13" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -9812,7 +9815,7 @@
       </c>
       <c r="MX13" s="6"/>
     </row>
-    <row r="14" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -10362,7 +10365,7 @@
       </c>
       <c r="MX14" s="6"/>
     </row>
-    <row r="15" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -10912,7 +10915,7 @@
       </c>
       <c r="MX15" s="6"/>
     </row>
-    <row r="16" spans="1:363" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -11462,7 +11465,7 @@
       </c>
       <c r="MX16" s="6"/>
     </row>
-    <row r="17" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12</v>
       </c>
@@ -12012,7 +12015,7 @@
       </c>
       <c r="MX17" s="6"/>
     </row>
-    <row r="18" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -12562,7 +12565,7 @@
       </c>
       <c r="MX18" s="6"/>
     </row>
-    <row r="19" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -13112,7 +13115,7 @@
       </c>
       <c r="MX19" s="6"/>
     </row>
-    <row r="20" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -13662,7 +13665,7 @@
       </c>
       <c r="MX20" s="6"/>
     </row>
-    <row r="21" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16</v>
       </c>
@@ -14212,7 +14215,7 @@
       </c>
       <c r="MX21" s="6"/>
     </row>
-    <row r="22" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17</v>
       </c>
@@ -14762,7 +14765,7 @@
       </c>
       <c r="MX22" s="6"/>
     </row>
-    <row r="23" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>18</v>
       </c>
@@ -15312,7 +15315,7 @@
       </c>
       <c r="MX23" s="6"/>
     </row>
-    <row r="24" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19</v>
       </c>
@@ -15862,7 +15865,7 @@
       </c>
       <c r="MX24" s="6"/>
     </row>
-    <row r="25" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -16908,7 +16911,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="26" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>21</v>
       </c>
@@ -17458,7 +17461,7 @@
       </c>
       <c r="MX26" s="6"/>
     </row>
-    <row r="27" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>22</v>
       </c>
@@ -18008,7 +18011,7 @@
       </c>
       <c r="MX27" s="6"/>
     </row>
-    <row r="28" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>23</v>
       </c>
@@ -18558,7 +18561,7 @@
       </c>
       <c r="MX28" s="6"/>
     </row>
-    <row r="29" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>24</v>
       </c>
@@ -19108,7 +19111,7 @@
       </c>
       <c r="MX29" s="6"/>
     </row>
-    <row r="30" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>25</v>
       </c>
@@ -19658,7 +19661,7 @@
       </c>
       <c r="MX30" s="6"/>
     </row>
-    <row r="31" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>26</v>
       </c>
@@ -20208,7 +20211,7 @@
       </c>
       <c r="MX31" s="6"/>
     </row>
-    <row r="32" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>27</v>
       </c>
@@ -20758,7 +20761,7 @@
       </c>
       <c r="MX32" s="6"/>
     </row>
-    <row r="33" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>28</v>
       </c>
@@ -21308,7 +21311,7 @@
       </c>
       <c r="MX33" s="6"/>
     </row>
-    <row r="34" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>29</v>
       </c>
@@ -21858,7 +21861,7 @@
       </c>
       <c r="MX34" s="6"/>
     </row>
-    <row r="35" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30</v>
       </c>
@@ -22408,7 +22411,7 @@
       </c>
       <c r="MX35" s="6"/>
     </row>
-    <row r="36" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>31</v>
       </c>
@@ -22958,7 +22961,7 @@
       </c>
       <c r="MX36" s="6"/>
     </row>
-    <row r="37" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>32</v>
       </c>
@@ -23508,7 +23511,7 @@
       </c>
       <c r="MX37" s="6"/>
     </row>
-    <row r="38" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>33</v>
       </c>
@@ -24058,7 +24061,7 @@
       </c>
       <c r="MX38" s="6"/>
     </row>
-    <row r="39" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>34</v>
       </c>
@@ -24608,7 +24611,7 @@
       </c>
       <c r="MX39" s="6"/>
     </row>
-    <row r="40" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>35</v>
       </c>
@@ -25158,7 +25161,7 @@
       </c>
       <c r="MX40" s="6"/>
     </row>
-    <row r="41" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>36</v>
       </c>
@@ -26204,7 +26207,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="42" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>37</v>
       </c>
@@ -26754,7 +26757,7 @@
       </c>
       <c r="MX42" s="6"/>
     </row>
-    <row r="43" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -27304,7 +27307,7 @@
       </c>
       <c r="MX43" s="6"/>
     </row>
-    <row r="44" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>39</v>
       </c>
@@ -27854,7 +27857,7 @@
       </c>
       <c r="MX44" s="6"/>
     </row>
-    <row r="45" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40</v>
       </c>
@@ -28404,7 +28407,7 @@
       </c>
       <c r="MX45" s="6"/>
     </row>
-    <row r="46" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>41</v>
       </c>
@@ -28954,7 +28957,7 @@
       </c>
       <c r="MX46" s="6"/>
     </row>
-    <row r="47" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>42</v>
       </c>
@@ -29504,7 +29507,7 @@
       </c>
       <c r="MX47" s="6"/>
     </row>
-    <row r="48" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>43</v>
       </c>
@@ -30054,7 +30057,7 @@
       </c>
       <c r="MX48" s="6"/>
     </row>
-    <row r="49" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>44</v>
       </c>
@@ -30604,7 +30607,7 @@
       </c>
       <c r="MX49" s="6"/>
     </row>
-    <row r="50" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>45</v>
       </c>
@@ -31154,7 +31157,7 @@
       </c>
       <c r="MX50" s="6"/>
     </row>
-    <row r="51" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -31704,7 +31707,7 @@
       </c>
       <c r="MX51" s="6"/>
     </row>
-    <row r="52" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>47</v>
       </c>
@@ -32254,7 +32257,7 @@
       </c>
       <c r="MX52" s="6"/>
     </row>
-    <row r="53" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>48</v>
       </c>
@@ -32804,7 +32807,7 @@
       </c>
       <c r="MX53" s="6"/>
     </row>
-    <row r="54" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>49</v>
       </c>
@@ -33354,7 +33357,7 @@
       </c>
       <c r="MX54" s="6"/>
     </row>
-    <row r="55" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50</v>
       </c>
@@ -33904,7 +33907,7 @@
       </c>
       <c r="MX55" s="6"/>
     </row>
-    <row r="56" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>51</v>
       </c>
@@ -34454,7 +34457,7 @@
       </c>
       <c r="MX56" s="6"/>
     </row>
-    <row r="57" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>52</v>
       </c>
@@ -35500,7 +35503,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="58" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>53</v>
       </c>
@@ -36050,7 +36053,7 @@
       </c>
       <c r="MX58" s="6"/>
     </row>
-    <row r="59" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>54</v>
       </c>
@@ -36600,7 +36603,7 @@
       </c>
       <c r="MX59" s="6"/>
     </row>
-    <row r="60" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>55</v>
       </c>
@@ -37150,7 +37153,7 @@
       </c>
       <c r="MX60" s="6"/>
     </row>
-    <row r="61" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>56</v>
       </c>
@@ -37700,7 +37703,7 @@
       </c>
       <c r="MX61" s="6"/>
     </row>
-    <row r="62" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>57</v>
       </c>
@@ -38250,7 +38253,7 @@
       </c>
       <c r="MX62" s="6"/>
     </row>
-    <row r="63" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>58</v>
       </c>
@@ -38800,7 +38803,7 @@
       </c>
       <c r="MX63" s="6"/>
     </row>
-    <row r="64" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>59</v>
       </c>
@@ -39350,7 +39353,7 @@
       </c>
       <c r="MX64" s="6"/>
     </row>
-    <row r="65" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>60</v>
       </c>
@@ -39900,7 +39903,7 @@
       </c>
       <c r="MX65" s="6"/>
     </row>
-    <row r="66" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>61</v>
       </c>
@@ -40450,7 +40453,7 @@
       </c>
       <c r="MX66" s="6"/>
     </row>
-    <row r="67" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>62</v>
       </c>
@@ -41000,7 +41003,7 @@
       </c>
       <c r="MX67" s="6"/>
     </row>
-    <row r="68" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>63</v>
       </c>
@@ -41550,7 +41553,7 @@
       </c>
       <c r="MX68" s="6"/>
     </row>
-    <row r="69" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>64</v>
       </c>
@@ -42100,7 +42103,7 @@
       </c>
       <c r="MX69" s="6"/>
     </row>
-    <row r="70" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>65</v>
       </c>
@@ -42650,7 +42653,7 @@
       </c>
       <c r="MX70" s="6"/>
     </row>
-    <row r="71" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>66</v>
       </c>
@@ -43200,7 +43203,7 @@
       </c>
       <c r="MX71" s="6"/>
     </row>
-    <row r="72" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>67</v>
       </c>
@@ -43750,7 +43753,7 @@
       </c>
       <c r="MX72" s="6"/>
     </row>
-    <row r="73" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>68</v>
       </c>
@@ -44796,7 +44799,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="74" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>69</v>
       </c>
@@ -45346,7 +45349,7 @@
       </c>
       <c r="MX74" s="6"/>
     </row>
-    <row r="75" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>70</v>
       </c>
@@ -45896,7 +45899,7 @@
       </c>
       <c r="MX75" s="6"/>
     </row>
-    <row r="76" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>71</v>
       </c>
@@ -46446,7 +46449,7 @@
       </c>
       <c r="MX76" s="6"/>
     </row>
-    <row r="77" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>72</v>
       </c>
@@ -46996,7 +46999,7 @@
       </c>
       <c r="MX77" s="6"/>
     </row>
-    <row r="78" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>73</v>
       </c>
@@ -47546,7 +47549,7 @@
       </c>
       <c r="MX78" s="6"/>
     </row>
-    <row r="79" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>74</v>
       </c>
@@ -48096,7 +48099,7 @@
       </c>
       <c r="MX79" s="6"/>
     </row>
-    <row r="80" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>75</v>
       </c>
@@ -48646,7 +48649,7 @@
       </c>
       <c r="MX80" s="6"/>
     </row>
-    <row r="81" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>76</v>
       </c>
@@ -49196,7 +49199,7 @@
       </c>
       <c r="MX81" s="6"/>
     </row>
-    <row r="82" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>77</v>
       </c>
@@ -49746,7 +49749,7 @@
       </c>
       <c r="MX82" s="6"/>
     </row>
-    <row r="83" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>78</v>
       </c>
@@ -50296,7 +50299,7 @@
       </c>
       <c r="MX83" s="6"/>
     </row>
-    <row r="84" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>79</v>
       </c>
@@ -50846,7 +50849,7 @@
       </c>
       <c r="MX84" s="6"/>
     </row>
-    <row r="85" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>80</v>
       </c>
@@ -51396,7 +51399,7 @@
       </c>
       <c r="MX85" s="6"/>
     </row>
-    <row r="86" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>81</v>
       </c>
@@ -51946,7 +51949,7 @@
       </c>
       <c r="MX86" s="6"/>
     </row>
-    <row r="87" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>82</v>
       </c>
@@ -52496,7 +52499,7 @@
       </c>
       <c r="MX87" s="6"/>
     </row>
-    <row r="88" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>83</v>
       </c>
@@ -53046,7 +53049,7 @@
       </c>
       <c r="MX88" s="6"/>
     </row>
-    <row r="89" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>84</v>
       </c>
@@ -54092,7 +54095,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="90" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>85</v>
       </c>
@@ -54642,7 +54645,7 @@
       </c>
       <c r="MX90" s="6"/>
     </row>
-    <row r="91" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>86</v>
       </c>
@@ -55192,7 +55195,7 @@
       </c>
       <c r="MX91" s="6"/>
     </row>
-    <row r="92" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>87</v>
       </c>
@@ -55742,7 +55745,7 @@
       </c>
       <c r="MX92" s="6"/>
     </row>
-    <row r="93" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>88</v>
       </c>
@@ -56292,7 +56295,7 @@
       </c>
       <c r="MX93" s="6"/>
     </row>
-    <row r="94" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>89</v>
       </c>
@@ -56842,7 +56845,7 @@
       </c>
       <c r="MX94" s="6"/>
     </row>
-    <row r="95" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>90</v>
       </c>
@@ -57392,7 +57395,7 @@
       </c>
       <c r="MX95" s="6"/>
     </row>
-    <row r="96" spans="1:362" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:362" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>91</v>
       </c>
@@ -57942,7 +57945,7 @@
       </c>
       <c r="MX96" s="6"/>
     </row>
-    <row r="97" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:385" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>92</v>
       </c>
@@ -58492,7 +58495,7 @@
       </c>
       <c r="MX97" s="6"/>
     </row>
-    <row r="98" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:385" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>93</v>
       </c>
@@ -59042,7 +59045,7 @@
       </c>
       <c r="MX98" s="6"/>
     </row>
-    <row r="99" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:385" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>94</v>
       </c>
@@ -59592,7 +59595,7 @@
       </c>
       <c r="MX99" s="6"/>
     </row>
-    <row r="100" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:385" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>95</v>
       </c>
@@ -60142,7 +60145,7 @@
       </c>
       <c r="MX100" s="6"/>
     </row>
-    <row r="101" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:385" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>96</v>
       </c>
@@ -60692,7 +60695,7 @@
       </c>
       <c r="MX101" s="6"/>
     </row>
-    <row r="102" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:385" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>97</v>
       </c>
@@ -61242,7 +61245,7 @@
       </c>
       <c r="MX102" s="6"/>
     </row>
-    <row r="103" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:385" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>98</v>
       </c>
@@ -61792,7 +61795,7 @@
       </c>
       <c r="MX103" s="6"/>
     </row>
-    <row r="104" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:385" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>99</v>
       </c>
@@ -62342,7 +62345,7 @@
       </c>
       <c r="MX104" s="6"/>
     </row>
-    <row r="105" spans="1:385" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:385" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="45">
         <v>100</v>
       </c>
@@ -63437,7 +63440,7 @@
       <c r="NT105" s="17"/>
       <c r="NU105" s="17"/>
     </row>
-    <row r="106" spans="1:385" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:385" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>101</v>
       </c>
@@ -64091,7 +64094,7 @@
       <c r="NT106" s="17"/>
       <c r="NU106" s="17"/>
     </row>
-    <row r="107" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:385" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>102</v>
       </c>
@@ -64522,7 +64525,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:385" x14ac:dyDescent="0.2">
       <c r="II108">
         <v>103</v>
       </c>
@@ -64689,7 +64692,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:385" x14ac:dyDescent="0.2">
       <c r="II109">
         <v>104</v>
       </c>
@@ -64856,7 +64859,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:385" x14ac:dyDescent="0.2">
       <c r="II110">
         <v>105</v>
       </c>
@@ -65023,7 +65026,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:385" x14ac:dyDescent="0.2">
       <c r="II111">
         <v>106</v>
       </c>
@@ -65191,7 +65194,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:385" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:385" x14ac:dyDescent="0.2">
       <c r="II112">
         <v>107</v>
       </c>
@@ -65357,7 +65360,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="113" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II113">
         <v>108</v>
       </c>
@@ -65523,7 +65526,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="114" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II114">
         <v>109</v>
       </c>
@@ -65689,7 +65692,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="115" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II115">
         <v>110</v>
       </c>
@@ -65855,7 +65858,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="116" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II116">
         <v>111</v>
       </c>
@@ -66021,7 +66024,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="117" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II117">
         <v>112</v>
       </c>
@@ -66187,7 +66190,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="118" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II118">
         <v>113</v>
       </c>
@@ -66353,7 +66356,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="119" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II119">
         <v>114</v>
       </c>
@@ -66519,7 +66522,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="120" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II120">
         <v>115</v>
       </c>
@@ -66685,7 +66688,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="121" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II121">
         <v>116</v>
       </c>
@@ -67027,7 +67030,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="122" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="122" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II122">
         <v>117</v>
       </c>
@@ -67193,7 +67196,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="123" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II123">
         <v>118</v>
       </c>
@@ -67359,7 +67362,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="124" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II124">
         <v>119</v>
       </c>
@@ -67525,7 +67528,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="125" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II125">
         <v>120</v>
       </c>
@@ -67691,7 +67694,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="126" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II126">
         <v>121</v>
       </c>
@@ -67857,7 +67860,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="127" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II127">
         <v>122</v>
       </c>
@@ -68023,7 +68026,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="128" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II128">
         <v>123</v>
       </c>
@@ -68189,7 +68192,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="129" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II129">
         <v>124</v>
       </c>
@@ -68355,7 +68358,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="130" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II130">
         <v>125</v>
       </c>
@@ -68521,7 +68524,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="131" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II131">
         <v>126</v>
       </c>
@@ -68688,7 +68691,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="132" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II132">
         <v>127</v>
       </c>
@@ -68854,7 +68857,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="133" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II133">
         <v>128</v>
       </c>
@@ -69020,7 +69023,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="134" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II134">
         <v>129</v>
       </c>
@@ -69186,7 +69189,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="135" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II135">
         <v>130</v>
       </c>
@@ -69354,7 +69357,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="136" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II136">
         <v>131</v>
       </c>
@@ -69520,7 +69523,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="137" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II137">
         <v>132</v>
       </c>
@@ -69862,7 +69865,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="138" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="138" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II138">
         <v>133</v>
       </c>
@@ -70028,7 +70031,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="139" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II139">
         <v>134</v>
       </c>
@@ -70194,7 +70197,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="140" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II140">
         <v>135</v>
       </c>
@@ -70360,7 +70363,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="141" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II141">
         <v>136</v>
       </c>
@@ -70526,7 +70529,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="142" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II142">
         <v>137</v>
       </c>
@@ -70692,7 +70695,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="143" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II143">
         <v>138</v>
       </c>
@@ -70858,7 +70861,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="144" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II144">
         <v>139</v>
       </c>
@@ -71024,7 +71027,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="145" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II145">
         <v>140</v>
       </c>
@@ -71190,7 +71193,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="146" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II146">
         <v>141</v>
       </c>
@@ -71356,7 +71359,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="147" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II147">
         <v>142</v>
       </c>
@@ -71522,7 +71525,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="148" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II148">
         <v>143</v>
       </c>
@@ -71688,7 +71691,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="149" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II149">
         <v>144</v>
       </c>
@@ -71854,7 +71857,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="150" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II150">
         <v>145</v>
       </c>
@@ -72020,7 +72023,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="151" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II151">
         <v>146</v>
       </c>
@@ -72188,7 +72191,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="152" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II152">
         <v>147</v>
       </c>
@@ -72355,7 +72358,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="153" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II153">
         <v>148</v>
       </c>
@@ -72697,7 +72700,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="154" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="154" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II154">
         <v>149</v>
       </c>
@@ -72863,7 +72866,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="155" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II155">
         <v>150</v>
       </c>
@@ -73029,7 +73032,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="156" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II156">
         <v>151</v>
       </c>
@@ -73195,7 +73198,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="157" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II157">
         <v>152</v>
       </c>
@@ -73361,7 +73364,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="158" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II158">
         <v>153</v>
       </c>
@@ -73527,7 +73530,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="159" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II159">
         <v>154</v>
       </c>
@@ -73693,7 +73696,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="160" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II160">
         <v>155</v>
       </c>
@@ -73859,7 +73862,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="161" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II161">
         <v>156</v>
       </c>
@@ -74025,7 +74028,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="162" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II162">
         <v>157</v>
       </c>
@@ -74191,7 +74194,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="163" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II163">
         <v>158</v>
       </c>
@@ -74357,7 +74360,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="164" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II164">
         <v>159</v>
       </c>
@@ -74523,7 +74526,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="165" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II165">
         <v>160</v>
       </c>
@@ -74689,7 +74692,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="166" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II166">
         <v>161</v>
       </c>
@@ -74855,7 +74858,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="167" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II167">
         <v>162</v>
       </c>
@@ -75023,7 +75026,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="168" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II168">
         <v>163</v>
       </c>
@@ -75189,7 +75192,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="169" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II169">
         <v>164</v>
       </c>
@@ -75531,7 +75534,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="170" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="170" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II170">
         <v>165</v>
       </c>
@@ -75697,7 +75700,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="171" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II171">
         <v>166</v>
       </c>
@@ -75863,7 +75866,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="172" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II172">
         <v>167</v>
       </c>
@@ -76029,7 +76032,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="173" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II173">
         <v>168</v>
       </c>
@@ -76195,7 +76198,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="174" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II174">
         <v>169</v>
       </c>
@@ -76361,7 +76364,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="175" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II175">
         <v>170</v>
       </c>
@@ -76527,7 +76530,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="176" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II176">
         <v>171</v>
       </c>
@@ -76693,7 +76696,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="177" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II177">
         <v>172</v>
       </c>
@@ -76859,7 +76862,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="178" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II178">
         <v>173</v>
       </c>
@@ -77025,7 +77028,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="179" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II179">
         <v>174</v>
       </c>
@@ -77191,7 +77194,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="180" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II180">
         <v>175</v>
       </c>
@@ -77357,7 +77360,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="181" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II181">
         <v>176</v>
       </c>
@@ -77523,7 +77526,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="182" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II182">
         <v>177</v>
       </c>
@@ -77689,7 +77692,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="183" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II183">
         <v>178</v>
       </c>
@@ -77857,7 +77860,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="184" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II184">
         <v>179</v>
       </c>
@@ -78023,7 +78026,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="185" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II185">
         <v>180</v>
       </c>
@@ -78365,7 +78368,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="186" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="186" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II186">
         <v>181</v>
       </c>
@@ -78531,7 +78534,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="187" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II187">
         <v>182</v>
       </c>
@@ -78699,7 +78702,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="188" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II188">
         <v>183</v>
       </c>
@@ -78865,7 +78868,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="189" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II189">
         <v>184</v>
       </c>
@@ -79031,7 +79034,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="190" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II190">
         <v>185</v>
       </c>
@@ -79197,7 +79200,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="191" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II191">
         <v>186</v>
       </c>
@@ -79363,7 +79366,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="243:362" x14ac:dyDescent="0.25">
+    <row r="192" spans="243:362" x14ac:dyDescent="0.2">
       <c r="II192">
         <v>187</v>
       </c>
@@ -79529,7 +79532,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="193" spans="242:363" x14ac:dyDescent="0.2">
       <c r="II193">
         <v>188</v>
       </c>
@@ -79695,7 +79698,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="194" spans="242:363" x14ac:dyDescent="0.2">
       <c r="II194">
         <v>189</v>
       </c>
@@ -79861,7 +79864,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="195" spans="242:363" x14ac:dyDescent="0.2">
       <c r="II195">
         <v>190</v>
       </c>
@@ -80027,7 +80030,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="196" spans="242:363" x14ac:dyDescent="0.2">
       <c r="II196">
         <v>191</v>
       </c>
@@ -80193,7 +80196,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="197" spans="242:363" x14ac:dyDescent="0.2">
       <c r="II197">
         <v>192</v>
       </c>
@@ -80359,7 +80362,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="198" spans="242:363" x14ac:dyDescent="0.2">
       <c r="II198">
         <v>193</v>
       </c>
@@ -80525,7 +80528,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="199" spans="242:363" x14ac:dyDescent="0.2">
       <c r="II199">
         <v>194</v>
       </c>
@@ -80693,7 +80696,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="200" spans="242:363" x14ac:dyDescent="0.2">
       <c r="II200">
         <v>195</v>
       </c>
@@ -80859,7 +80862,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="201" spans="242:363" x14ac:dyDescent="0.2">
       <c r="II201">
         <v>196</v>
       </c>
@@ -81201,7 +81204,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="202" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="202" spans="242:363" x14ac:dyDescent="0.2">
       <c r="II202">
         <v>197</v>
       </c>
@@ -81367,7 +81370,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="242:363" x14ac:dyDescent="0.25">
+    <row r="203" spans="242:363" x14ac:dyDescent="0.2">
       <c r="IH203" s="48"/>
       <c r="II203" s="45">
         <v>198</v>
@@ -81617,12 +81620,21 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="BD4:BM4"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="W4:AF4"/>
-    <mergeCell ref="AH4:AQ4"/>
-    <mergeCell ref="AS4:BB4"/>
+    <mergeCell ref="LS4:MB4"/>
+    <mergeCell ref="MD4:MM4"/>
+    <mergeCell ref="MO4:MX4"/>
+    <mergeCell ref="JP4:JY4"/>
+    <mergeCell ref="KA4:KJ4"/>
+    <mergeCell ref="KL4:KU4"/>
+    <mergeCell ref="KW4:LF4"/>
+    <mergeCell ref="LH4:LQ4"/>
+    <mergeCell ref="JE4:JN4"/>
+    <mergeCell ref="GQ4:GZ4"/>
+    <mergeCell ref="HB4:HK4"/>
+    <mergeCell ref="HM4:HV4"/>
+    <mergeCell ref="HX4:IG4"/>
+    <mergeCell ref="II4:IR4"/>
+    <mergeCell ref="IT4:JC4"/>
     <mergeCell ref="GF4:GO4"/>
     <mergeCell ref="BO4:BX4"/>
     <mergeCell ref="BZ4:CI4"/>
@@ -81635,21 +81647,12 @@
     <mergeCell ref="EY4:FH4"/>
     <mergeCell ref="FJ4:FS4"/>
     <mergeCell ref="FU4:GD4"/>
-    <mergeCell ref="JE4:JN4"/>
-    <mergeCell ref="GQ4:GZ4"/>
-    <mergeCell ref="HB4:HK4"/>
-    <mergeCell ref="HM4:HV4"/>
-    <mergeCell ref="HX4:IG4"/>
-    <mergeCell ref="II4:IR4"/>
-    <mergeCell ref="IT4:JC4"/>
-    <mergeCell ref="LS4:MB4"/>
-    <mergeCell ref="MD4:MM4"/>
-    <mergeCell ref="MO4:MX4"/>
-    <mergeCell ref="JP4:JY4"/>
-    <mergeCell ref="KA4:KJ4"/>
-    <mergeCell ref="KL4:KU4"/>
-    <mergeCell ref="KW4:LF4"/>
-    <mergeCell ref="LH4:LQ4"/>
+    <mergeCell ref="BD4:BM4"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="W4:AF4"/>
+    <mergeCell ref="AH4:AQ4"/>
+    <mergeCell ref="AS4:BB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -81664,14 +81667,14 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
@@ -81690,7 +81693,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="75" t="s">
         <v>32</v>
@@ -81712,7 +81715,7 @@
       <c r="Q8" s="54"/>
       <c r="R8" s="54"/>
     </row>
-    <row r="9" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="55" t="s">
         <v>26</v>
       </c>
@@ -81742,7 +81745,7 @@
       <c r="R9" s="58"/>
       <c r="V9" s="54"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="29">
         <v>1</v>
       </c>
@@ -81772,7 +81775,7 @@
       <c r="R10" s="23"/>
       <c r="V10" s="22"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="29">
         <v>2</v>
       </c>
@@ -81802,7 +81805,7 @@
       <c r="R11" s="23"/>
       <c r="V11" s="22"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="29">
         <v>3</v>
       </c>
@@ -81832,7 +81835,7 @@
       <c r="R12" s="23"/>
       <c r="V12" s="22"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="29">
         <v>4</v>
       </c>
@@ -81862,7 +81865,7 @@
       <c r="R13" s="23"/>
       <c r="V13" s="22"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="33">
         <v>5</v>
       </c>
@@ -81892,7 +81895,7 @@
       <c r="R14" s="23"/>
       <c r="V14" s="22"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" s="37">
         <v>6</v>
       </c>
@@ -81922,7 +81925,7 @@
       <c r="R15" s="23"/>
       <c r="V15" s="22"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="29">
         <v>7</v>
       </c>
@@ -81952,7 +81955,7 @@
       <c r="R16" s="23"/>
       <c r="V16" s="22"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="29">
         <v>8</v>
       </c>
@@ -81982,7 +81985,7 @@
       <c r="R17" s="23"/>
       <c r="V17" s="22"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="29">
         <v>9</v>
       </c>
@@ -82012,7 +82015,7 @@
       <c r="R18" s="23"/>
       <c r="V18" s="22"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="29">
         <v>10</v>
       </c>
@@ -82042,7 +82045,7 @@
       <c r="R19" s="23"/>
       <c r="V19" s="22"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
@@ -82065,7 +82068,7 @@
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="75" t="s">
         <v>33</v>
       </c>
@@ -82090,7 +82093,7 @@
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="26" t="s">
         <v>26</v>
       </c>
@@ -82123,7 +82126,7 @@
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="29">
         <v>1</v>
       </c>
@@ -82156,7 +82159,7 @@
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="29">
         <v>2</v>
       </c>
@@ -82189,7 +82192,7 @@
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="29">
         <v>3</v>
       </c>
@@ -82222,7 +82225,7 @@
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="29">
         <v>4</v>
       </c>
@@ -82255,7 +82258,7 @@
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="33">
         <v>5</v>
       </c>
@@ -82285,7 +82288,7 @@
       <c r="R27" s="23"/>
       <c r="T27" s="21"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <v>6</v>
       </c>
@@ -82314,7 +82317,7 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="23"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="29">
         <v>7</v>
       </c>
@@ -82343,7 +82346,7 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="23"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="29">
         <v>8</v>
       </c>
@@ -82372,7 +82375,7 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="23"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="29">
         <v>9</v>
       </c>
@@ -82401,7 +82404,7 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="23"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="29">
         <v>10</v>
       </c>
@@ -82430,7 +82433,7 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="23"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="23"/>
@@ -82449,7 +82452,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="23"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="75" t="s">
         <v>35</v>
       </c>
@@ -82470,7 +82473,7 @@
       <c r="Q34" s="22"/>
       <c r="R34" s="23"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="26" t="s">
         <v>26</v>
       </c>
@@ -82499,7 +82502,7 @@
       <c r="Q35" s="22"/>
       <c r="R35" s="23"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="29">
         <v>1</v>
       </c>
@@ -82528,7 +82531,7 @@
       <c r="Q36" s="22"/>
       <c r="R36" s="23"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="29">
         <v>2</v>
       </c>
@@ -82557,7 +82560,7 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="23"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="29">
         <v>3</v>
       </c>
@@ -82586,7 +82589,7 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="23"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="29">
         <v>4</v>
       </c>
@@ -82615,7 +82618,7 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="23"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="33">
         <v>5</v>
       </c>
@@ -82644,7 +82647,7 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="23"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>6</v>
       </c>
@@ -82673,7 +82676,7 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="23"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="29">
         <v>7</v>
       </c>
@@ -82702,7 +82705,7 @@
       <c r="Q42" s="22"/>
       <c r="R42" s="23"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="29">
         <v>8</v>
       </c>
@@ -82731,7 +82734,7 @@
       <c r="Q43" s="22"/>
       <c r="R43" s="23"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="29">
         <v>9</v>
       </c>
@@ -82760,7 +82763,7 @@
       <c r="Q44" s="22"/>
       <c r="R44" s="23"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45" s="29">
         <v>10</v>
       </c>
@@ -82789,7 +82792,7 @@
       <c r="Q45" s="22"/>
       <c r="R45" s="23"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="23"/>
@@ -82808,7 +82811,7 @@
       <c r="Q46" s="22"/>
       <c r="R46" s="23"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="23"/>
@@ -82827,7 +82830,7 @@
       <c r="Q47" s="22"/>
       <c r="R47" s="23"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
@@ -82846,7 +82849,7 @@
       <c r="Q48" s="22"/>
       <c r="R48" s="23"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="23"/>
@@ -82865,7 +82868,7 @@
       <c r="Q49" s="22"/>
       <c r="R49" s="23"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -82884,7 +82887,7 @@
       <c r="Q50" s="22"/>
       <c r="R50" s="23"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="23"/>
@@ -82903,7 +82906,7 @@
       <c r="Q51" s="22"/>
       <c r="R51" s="23"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="23"/>
@@ -82922,7 +82925,7 @@
       <c r="Q52" s="22"/>
       <c r="R52" s="23"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="23"/>
@@ -82941,12 +82944,12 @@
       <c r="Q53" s="22"/>
       <c r="R53" s="23"/>
     </row>
-    <row r="105" spans="4:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D105" s="9"/>
       <c r="K105" s="9"/>
       <c r="R105" s="9"/>
     </row>
-    <row r="106" spans="4:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D106" s="18"/>
       <c r="K106" s="18"/>
       <c r="R106" s="18"/>
@@ -82970,12 +82973,12 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -82989,7 +82992,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -82997,7 +83000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -83008,12 +83011,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -83030,7 +83033,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -83047,7 +83050,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -83064,7 +83067,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -83081,7 +83084,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -83098,7 +83101,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -83115,7 +83118,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
